--- a/result_images/HPC_dt.xlsx
+++ b/result_images/HPC_dt.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="460" windowWidth="22280" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="-1500" yWindow="460" windowWidth="18540" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -138,7 +141,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> Threads</a:t>
+              <a:t> Processors</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
@@ -209,33 +212,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.31149</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>2.07027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.376455</c:v>
+                  <c:v>1.380325</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1705475</c:v>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.2012</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0748155</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0442315</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.052825</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.034955</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0092655</c:v>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.1696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -252,11 +243,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101486576"/>
-        <c:axId val="101488352"/>
+        <c:axId val="-1748102720"/>
+        <c:axId val="-1748098608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101486576"/>
+        <c:axId val="-1748102720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,7 +274,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Threads</a:t>
+                  <a:t>Processors</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
@@ -358,7 +349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101488352"/>
+        <c:crossAx val="-1748098608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -366,7 +357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101488352"/>
+        <c:axId val="-1748098608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +422,7 @@
                   <a:rPr lang="en-US" sz="1400" b="0" i="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>μs)</a:t>
+                  <a:t>s)</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -450,16 +441,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -540,7 +528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101486576"/>
+        <c:crossAx val="-1748102720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -636,7 +624,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> Threads</a:t>
+              <a:t> Processors</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
@@ -707,33 +695,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.679306624626305</c:v>
+                  <c:v>1.499842428413598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.97470841636072</c:v>
+                  <c:v>1.723501498501498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.150592357479028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.213580034695372</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.195512074656282</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.233420776748748</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.290269507874787</c:v>
+                  <c:v>1.770066689466484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,11 +726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-371832512"/>
-        <c:axId val="-371879872"/>
+        <c:axId val="-1748075984"/>
+        <c:axId val="-1748072864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-371832512"/>
+        <c:axId val="-1748075984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,11 +757,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Threads</a:t>
+                  <a:t>Processors </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (n)</a:t>
+                  <a:t>(n)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -856,7 +832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371879872"/>
+        <c:crossAx val="-1748072864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -864,9 +840,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-371879872"/>
+        <c:axId val="-1748072864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.9"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1032,9 +1010,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371832512"/>
+        <c:crossAx val="-1748075984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1077,6 +1056,2079 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Efficiency vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Processors</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.749921214206799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.574500499500499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.442516672366621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1748051952"/>
+        <c:axId val="-1748048192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1748051952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Processors </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1748048192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1748048192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Sp </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>/ n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1748051952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Time vs. Image Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>42.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.685164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.880413</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>2.29523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>42.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.395248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.256308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.449017</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.14108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1616062592"/>
+        <c:axId val="-1616058832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1616062592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Pixel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>s per Image </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="is-IS" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="is-IS" sz="1400" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>6</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="is-IS" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="is-IS" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1616058832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1616058832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Execution Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1616062592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Parallelism vs. Image Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>42.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$8:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.733504027850868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.949451441234765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.960756496970048</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>2.011454061064956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1600332496"/>
+        <c:axId val="-1600330368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1600332496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Pixel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>s per Image (10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                  <a:t>6</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1600330368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1600330368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.1"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
+                  <a:t>Ts</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+                  <a:t> / Tp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1600332496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Time vs. Image Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>42.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.685164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.880413</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>2.29523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>42.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.395248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.256308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.449017</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.14108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1595664400"/>
+        <c:axId val="-1595663872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1595664400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Pixel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>s per Image </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="is-IS" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="is-IS" sz="1400" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>6</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="is-IS" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="is-IS" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1595663872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1595663872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Execution Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1595664400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1161,6 +3213,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1665,6 +3877,2018 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2204,13 +6428,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2231,7 +6455,201 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101257</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>35697</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694381</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40502</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8581</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463378</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>65902</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694381</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40502</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.685164</v>
+          </cell>
+          <cell r="C2">
+            <v>0.39524799999999999</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.49965999999999999</v>
+          </cell>
+          <cell r="C3">
+            <v>0.25630799999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.880413</v>
+          </cell>
+          <cell r="C4">
+            <v>0.449017</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>2.2952300000000001</v>
+          </cell>
+          <cell r="C5">
+            <v>1.1410800000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>1.7335040278508684</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>1.9494514412347645</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>1.9607564969700479</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>2.0114540610649558</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2497,10 +6915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2508,7 +6926,7 @@
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2525,7 +6943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2536,14 +6954,18 @@
         <v>2276680</v>
       </c>
       <c r="D2" s="2">
-        <f>AVERAGE(B2:C2)*10^-6</f>
-        <v>2.31149</v>
+        <v>2.0702699999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
+        <f>2.07027/D2</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2/A2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2553,16 +6975,19 @@
       <c r="C3" s="3">
         <v>1381870</v>
       </c>
-      <c r="D3" s="2">
-        <f>AVERAGE(B3:C3)*10^-6</f>
-        <v>1.376455</v>
+      <c r="D3" s="1">
+        <v>1.380325</v>
       </c>
       <c r="E3" s="2">
-        <f>2.31149/D3</f>
-        <v>1.6793066246263046</v>
+        <f t="shared" ref="E3:E9" si="0">2.07027/D3</f>
+        <v>1.499842428413598</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3/A3</f>
+        <v>0.74992121420679902</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2573,15 +6998,18 @@
         <v>1166905</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D9" si="0">AVERAGE(B4:C4)*10^-6</f>
-        <v>1.1705474999999999</v>
+        <v>1.2012</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E9" si="1">2.31149/D4</f>
-        <v>1.9747084163607205</v>
+        <f t="shared" si="0"/>
+        <v>1.7235014985014983</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4/A4</f>
+        <v>0.57450049950049942</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2591,16 +7019,19 @@
       <c r="C5" s="2">
         <v>1047160</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0748154999999999</v>
+      <c r="D5" s="3">
+        <v>1.1696</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1505923574790278</v>
+        <f t="shared" si="0"/>
+        <v>1.7700666894664843</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5/A5</f>
+        <v>0.44251667236662107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2611,15 +7042,15 @@
         <v>1036880</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:D9" si="1">AVERAGE(B6:C6)*10^-6</f>
         <v>1.0442315</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2135800346953718</v>
+        <f t="shared" si="0"/>
+        <v>1.9825776180856447</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2630,15 +7061,15 @@
         <v>1051640</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0528249999999999</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>2.195512074656282</v>
+        <f t="shared" si="0"/>
+        <v>1.9663951748866146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2649,15 +7080,15 @@
         <v>1026420</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0349549999999998</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2334207767487477</v>
+        <f t="shared" si="0"/>
+        <v>2.0003478412104876</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2668,12 +7099,12 @@
         <v>1028930</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0092654999999999</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2902695078747866</v>
+        <f t="shared" si="0"/>
+        <v>2.0512640132849085</v>
       </c>
     </row>
   </sheetData>
